--- a/biology/Écologie/Zuhal_Atmar/Zuhal_Atmar.xlsx
+++ b/biology/Écologie/Zuhal_Atmar/Zuhal_Atmar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zuhal Atmar est une entrepreneuse et militante écologiste afghane.
 </t>
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Elle grandit en tant que réfugiée au Pakistan[1].
-Elle retourne en Afghanistan après la chute des talibans et après avoir terminé ses études universitaires[1].
-Carrière
-Elle travaille dans le secteur des ordures depuis 2012. Elle met d’abord en place une usine de gestion des déchets avant de se concentrer sur le recyclage[1].
-Elle achète pour 240 000 $ de machines, en partie financée par des fonds personnels, mais en grande partie donnée par le gouvernement américain dans le cadre du programme de l’USAID[1].
-En 2019, elle met en place une usine de recyclage pouvant traiter 33 tonnes de déchets par semaine[1]. C'est la première femme à installer un système de recyclage en Afghanistan[2].
-En 2020, elle tente de se lance dans la fabrication de papier toilette. Le projet n'aboutit à cause de la pandémie de Covid-19[3].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle grandit en tant que réfugiée au Pakistan.
+Elle retourne en Afghanistan après la chute des talibans et après avoir terminé ses études universitaires.
 </t>
         </is>
       </c>
@@ -546,13 +558,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prises de positions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle déclare subir des pressions à cause du fait qu'elle est une femme[1],[3].
-Elle intervient dans plusieurs médias pour parler de l'Afghanistan[4].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle travaille dans le secteur des ordures depuis 2012. Elle met d’abord en place une usine de gestion des déchets avant de se concentrer sur le recyclage.
+Elle achète pour 240 000 $ de machines, en partie financée par des fonds personnels, mais en grande partie donnée par le gouvernement américain dans le cadre du programme de l’USAID.
+En 2019, elle met en place une usine de recyclage pouvant traiter 33 tonnes de déchets par semaine. C'est la première femme à installer un système de recyclage en Afghanistan.
+En 2020, elle tente de se lance dans la fabrication de papier toilette. Le projet n'aboutit à cause de la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -578,12 +598,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prises de positions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle déclare subir des pressions à cause du fait qu'elle est une femme,.
+Elle intervient dans plusieurs médias pour parler de l'Afghanistan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zuhal_Atmar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zuhal_Atmar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fait partie des 100 femmes les plus inspirantes de 2021 selon la BBC[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait partie des 100 femmes les plus inspirantes de 2021 selon la BBC.
 </t>
         </is>
       </c>
